--- a/Data/EC/NIT-9000282597.xlsx
+++ b/Data/EC/NIT-9000282597.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CE6193-FAAB-45DB-8630-70C055AF338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84659958-4410-45D1-9FC6-F07A6745B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EB8F1D25-A16F-4E0A-9ADB-552E47DAE02B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{55368BF5-17C0-4A5E-AEA6-88F45CB02874}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,52 +65,64 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047430916</t>
+  </si>
+  <si>
+    <t>YESSI ARNALDO MARTINEZ IRIARTE</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
     <t>1047495227</t>
   </si>
   <si>
     <t>LUIS FELIPE BRU TABORDA</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1047430916</t>
-  </si>
-  <si>
-    <t>YESSI ARNALDO MARTINEZ IRIARTE</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
+    <t>1047503791</t>
+  </si>
+  <si>
+    <t>VALERIA FRANCO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2505</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -524,7 +536,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2855C4A9-D316-6485-AFD3-B8C3C1A6B648}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EC5232-194F-1537-47AC-D26724949871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +887,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0089AB4-740D-4D0E-A106-4AD2E537AF54}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8C6B3A-6677-4B90-97A9-C37DA6A89862}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -900,7 +912,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -945,7 +957,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -977,12 +989,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>412567</v>
+        <v>416983</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,17 +1005,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1030,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1053,10 +1065,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>14045</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1076,10 +1088,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1090,13 +1102,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1113,13 +1125,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1136,13 +1148,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1159,13 +1171,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1182,13 +1194,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1205,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1228,13 +1240,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1251,13 +1263,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1274,75 +1286,121 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G27" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="F27" s="18">
+        <v>14045</v>
+      </c>
+      <c r="G27" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="18">
+        <v>2208</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1532196</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="24">
+        <v>2208</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1532196</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9000282597.xlsx
+++ b/Data/EC/NIT-9000282597.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84659958-4410-45D1-9FC6-F07A6745B883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA96BFF-DB5E-40AB-AA34-D5A9580AA3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{55368BF5-17C0-4A5E-AEA6-88F45CB02874}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EA6148A-E7E8-4A7F-A5AF-56BB966FB7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,64 +65,52 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047495227</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE BRU TABORDA</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>1047430916</t>
   </si>
   <si>
     <t>YESSI ARNALDO MARTINEZ IRIARTE</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
     <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1047495227</t>
-  </si>
-  <si>
-    <t>LUIS FELIPE BRU TABORDA</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1047503791</t>
-  </si>
-  <si>
-    <t>VALERIA FRANCO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2505</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -221,7 +209,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -234,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -436,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -536,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EC5232-194F-1537-47AC-D26724949871}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8479C1EF-0B22-ACB6-349F-E84D10BB8D93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,8 +875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8C6B3A-6677-4B90-97A9-C37DA6A89862}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D3DDC0-3FEF-4056-A1DA-F6D75B0AC6DC}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -912,7 +900,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -957,7 +945,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -989,12 +977,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>416983</v>
+        <v>412567</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,17 +993,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1042,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1065,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>14045</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1088,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1102,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1125,13 +1113,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>36341</v>
@@ -1148,13 +1136,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>36341</v>
@@ -1171,13 +1159,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1194,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1217,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1240,13 +1228,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1263,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1286,121 +1274,75 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="C27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
-        <v>14045</v>
-      </c>
-      <c r="G27" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="18">
-        <v>2208</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1532196</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="24">
-        <v>2208</v>
-      </c>
-      <c r="G29" s="24">
-        <v>1532196</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="F27" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G27" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
